--- a/data/trans_dic/P12C1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P12C1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza tareas del hogar (Siempre yo y habitualmente yo)</t>
+          <t>Población que realiza tareas del hogar (Siempre yo y habitualmente yo) (tasa de respuesta: 99,78%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -549,32 +550,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>61,98%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>53,27%</t>
+          <t>48,92%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>43,3%</t>
+          <t>76,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>35,16%</t>
+          <t>31,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>69,54%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,23; 18,5</t>
+          <t>7,67; 17,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,56; 16,73</t>
+          <t>52,98; 73,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>47,89; 58,43</t>
+          <t>42,09; 55,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>34,91; 49,02</t>
+          <t>68,44; 82,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,29; 38,99</t>
+          <t>26,51; 36,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,49; 32,34</t>
+          <t>63,69; 75,25</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>54,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>45,37%</t>
+          <t>55,8%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>50,38%</t>
+          <t>70,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,66%</t>
+          <t>34,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>62,59%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,69; 19,62</t>
+          <t>6,54; 20,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,24; 16,21</t>
+          <t>44,66; 63,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,24; 51,57</t>
+          <t>47,55; 64,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>43,57; 56,7</t>
+          <t>57,16; 78,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,24; 35,11</t>
+          <t>28,8; 39,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,77; 35,41</t>
+          <t>54,97; 68,6</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>55,93%</t>
+          <t>51,02%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>56,84%</t>
+          <t>73,88%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>30,34%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>48,04%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 18,6</t>
+          <t>2,61; 29,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 23,3</t>
+          <t>8,51; 43,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>43,11; 68,1</t>
+          <t>34,96; 68,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>43,79; 69,55</t>
+          <t>55,48; 88,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,36; 40,67</t>
+          <t>19,91; 43,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,72; 41,4</t>
+          <t>29,88; 62,05</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>54,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>50,39%</t>
+          <t>51,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>47,51%</t>
+          <t>73,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>32,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>64,52%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,55; 16,35</t>
+          <t>8,54; 16,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,95; 14,64</t>
+          <t>47,76; 62,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,47; 54,43</t>
+          <t>47,32; 56,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41,71; 51,64</t>
+          <t>65,99; 78,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,44; 36,01</t>
+          <t>28,44; 35,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,66; 32,41</t>
+          <t>59,57; 69,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza tareas del hogar (Siempre yo y habitualmente yo) (tasa de respuesta: 99,78%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>46151</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>319768</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>199345</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>430901</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>245496</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>750669</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>29224; 67986</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>273308; 381407</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>171512; 226873</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>385743; 466822</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>208945; 287934</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>687520; 812345</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>37379</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>219282</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>186033</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>305485</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>223412</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>524767</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>21094; 65729</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>180979; 255322</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>158526; 214205</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>247625; 341029</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>188953; 259627</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>460929; 575185</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8896</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>28591</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>42119</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>82261</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>51015</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>110852</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2232; 24904</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10161; 52197</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>28860; 56149</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>61780; 98234</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>33470; 72696</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>68950; 143182</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>495.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>92426</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>567641</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>427497</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>818647</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>519923</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1386289</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>67369; 129391</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>497016; 648309</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>389612; 468636</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>731298; 872795</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>458524; 573500</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1279997; 1492232</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>